--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,14 +962,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 23678-2023</t>
+          <t>A 32633-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45077</v>
+        <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1019,14 +1019,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 58926-2025</t>
+          <t>A 45370-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45986</v>
+        <v>44844.6397337963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1076,14 +1076,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 50530-2024</t>
+          <t>A 23677-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45601.56424768519</v>
+        <v>45077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1133,14 +1133,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23677-2023</t>
+          <t>A 2253-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45077</v>
+        <v>44578</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1190,14 +1190,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 50538-2024</t>
+          <t>A 58926-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45601.57153935185</v>
+        <v>45986</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1247,14 +1247,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 50277-2024</t>
+          <t>A 23678-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45600.60440972223</v>
+        <v>45077</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1304,14 +1304,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 45370-2022</t>
+          <t>A 50277-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44844.6397337963</v>
+        <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1361,14 +1361,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 2253-2022</t>
+          <t>A 50530-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44578</v>
+        <v>45601.56424768519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1418,14 +1418,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 11351-2021</t>
+          <t>A 50538-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44263</v>
+        <v>45601.57153935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1475,14 +1475,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32633-2025</t>
+          <t>A 11351-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45838.65677083333</v>
+        <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44844.6397337963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>45077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44578</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>45986</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45077</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45601.56424768519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45601.57153935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44844.6397337963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>45077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44578</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>45986</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45077</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45601.56424768519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45601.57153935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 45370-2022</t>
+          <t>A 50530-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44844.6397337963</v>
+        <v>45601.56424768519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>45077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1133,14 +1133,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2253-2022</t>
+          <t>A 23678-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44578</v>
+        <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>45986</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1247,14 +1247,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 23678-2023</t>
+          <t>A 50538-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45077</v>
+        <v>45601.57153935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,14 +1361,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 50530-2024</t>
+          <t>A 45370-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45601.56424768519</v>
+        <v>44844.6397337963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1418,14 +1418,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 50538-2024</t>
+          <t>A 2253-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45601.57153935185</v>
+        <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,14 +962,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 32633-2025</t>
+          <t>A 11351-2021</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45838.65677083333</v>
+        <v>44263</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1019,14 +1019,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 50530-2024</t>
+          <t>A 32633-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45601.56424768519</v>
+        <v>45838.65677083333</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1076,14 +1076,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23677-2023</t>
+          <t>A 45370-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45077</v>
+        <v>44844.6397337963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1133,14 +1133,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23678-2023</t>
+          <t>A 23677-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1190,14 +1190,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 58926-2025</t>
+          <t>A 2253-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45986</v>
+        <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1247,14 +1247,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 50538-2024</t>
+          <t>A 58926-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45601.57153935185</v>
+        <v>45986</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1304,14 +1304,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 50277-2024</t>
+          <t>A 23678-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45600.60440972223</v>
+        <v>45077</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1361,14 +1361,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 45370-2022</t>
+          <t>A 50277-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44844.6397337963</v>
+        <v>45600.60440972223</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1418,14 +1418,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2253-2022</t>
+          <t>A 50530-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44578</v>
+        <v>45601.56424768519</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1475,14 +1475,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 11351-2021</t>
+          <t>A 50538-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44263</v>
+        <v>45601.57153935185</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,14 +962,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 11351-2021</t>
+          <t>A 50530-2024</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44263</v>
+        <v>45601.56424768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1019,14 +1019,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 32633-2025</t>
+          <t>A 50538-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45838.65677083333</v>
+        <v>45601.57153935185</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1076,14 +1076,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 45370-2022</t>
+          <t>A 23677-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44844.6397337963</v>
+        <v>45077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1133,14 +1133,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23677-2023</t>
+          <t>A 2253-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45077</v>
+        <v>44578</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1190,14 +1190,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 2253-2022</t>
+          <t>A 11351-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44578</v>
+        <v>44263</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1247,14 +1247,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 58926-2025</t>
+          <t>A 32633-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45986</v>
+        <v>45838.65677083333</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1304,14 +1304,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23678-2023</t>
+          <t>A 50277-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45077</v>
+        <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1361,14 +1361,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 50277-2024</t>
+          <t>A 23678-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45600.60440972223</v>
+        <v>45077</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1418,14 +1418,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 50530-2024</t>
+          <t>A 45370-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45601.56424768519</v>
+        <v>44844.6397337963</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1475,14 +1475,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 50538-2024</t>
+          <t>A 58926-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45601.57153935185</v>
+        <v>45986</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -962,14 +962,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 50530-2024</t>
+          <t>A 32633-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45601.56424768519</v>
+        <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1019,14 +1019,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 50538-2024</t>
+          <t>A 45370-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45601.57153935185</v>
+        <v>44844.6397337963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1083,7 +1083,7 @@
         <v>45077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44578</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1190,14 +1190,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 11351-2021</t>
+          <t>A 23678-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44263</v>
+        <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1247,14 +1247,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 32633-2025</t>
+          <t>A 50277-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45838.65677083333</v>
+        <v>45600.60440972223</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1304,14 +1304,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 50277-2024</t>
+          <t>A 50530-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45600.60440972223</v>
+        <v>45601.56424768519</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1361,14 +1361,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23678-2023</t>
+          <t>A 58926-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45077</v>
+        <v>45986</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1418,14 +1418,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45370-2022</t>
+          <t>A 50538-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44844.6397337963</v>
+        <v>45601.57153935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1475,14 +1475,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 58926-2025</t>
+          <t>A 11351-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45986</v>
+        <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44844.6397337963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>45077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44578</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1190,14 +1190,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 23678-2023</t>
+          <t>A 58926-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45077</v>
+        <v>45986</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1247,14 +1247,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 50277-2024</t>
+          <t>A 23678-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45600.60440972223</v>
+        <v>45077</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1304,14 +1304,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 50530-2024</t>
+          <t>A 50277-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45601.56424768519</v>
+        <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1361,14 +1361,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 58926-2025</t>
+          <t>A 50530-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45986</v>
+        <v>45601.56424768519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>45601.57153935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 45370-2022</t>
+          <t>A 58926-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44844.6397337963</v>
+        <v>45986</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1076,14 +1076,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 23677-2023</t>
+          <t>A 45370-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45077</v>
+        <v>44844.6397337963</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1133,14 +1133,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 2253-2022</t>
+          <t>A 23677-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44578</v>
+        <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1190,14 +1190,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 58926-2025</t>
+          <t>A 2253-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45986</v>
+        <v>44578</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>45077</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45601.56424768519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45601.57153935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 58926-2025</t>
+          <t>A 50530-2024</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45986</v>
+        <v>45601.56424768519</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1076,14 +1076,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 45370-2022</t>
+          <t>A 58926-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44844.6397337963</v>
+        <v>45986</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>45077</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1190,14 +1190,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 2253-2022</t>
+          <t>A 23678-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44578</v>
+        <v>45077</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1247,14 +1247,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 23678-2023</t>
+          <t>A 50538-2024</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45077</v>
+        <v>45601.57153935185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,14 +1361,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 50530-2024</t>
+          <t>A 45370-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45601.56424768519</v>
+        <v>44844.6397337963</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1418,14 +1418,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 50538-2024</t>
+          <t>A 2253-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45601.57153935185</v>
+        <v>44578</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1019,14 +1019,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 50530-2024</t>
+          <t>A 45370-2022</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45601.56424768519</v>
+        <v>44844.6397337963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1076,14 +1076,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 58926-2025</t>
+          <t>A 23677-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45986</v>
+        <v>45077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1133,14 +1133,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23677-2023</t>
+          <t>A 2253-2022</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45077</v>
+        <v>44578</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1190,14 +1190,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 23678-2023</t>
+          <t>A 58926-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45077</v>
+        <v>45986</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1247,14 +1247,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 50538-2024</t>
+          <t>A 23678-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45601.57153935185</v>
+        <v>45077</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1361,14 +1361,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 45370-2022</t>
+          <t>A 50530-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44844.6397337963</v>
+        <v>45601.56424768519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1418,14 +1418,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 2253-2022</t>
+          <t>A 50538-2024</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44578</v>
+        <v>45601.57153935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/Översikt VADSTENA.xlsx
+++ b/Översikt VADSTENA.xlsx
@@ -575,7 +575,7 @@
         <v>44683</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         <v>44687</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>45838.62688657407</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -855,7 +855,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -912,7 +912,7 @@
         <v>44263</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -969,7 +969,7 @@
         <v>45838.65677083333</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44844.6397337963</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1083,7 +1083,7 @@
         <v>45077</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         <v>44578</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>45986</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         <v>45077</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         <v>45600.60440972223</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>45601.56424768519</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         <v>45601.57153935185</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>44263</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
